--- a/Data Extraction And Loading/Program Files/Documentation/Import Steps Checklist.xlsx
+++ b/Data Extraction And Loading/Program Files/Documentation/Import Steps Checklist.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Data Extraction and Loading\Program Files\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Program Files\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31446AB5-AA31-4BCA-B444-5F19D530F538}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E7F462-EE0D-4764-A584-EC4BF5A917C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="6708" xr2:uid="{35CC5D13-6FA0-4E86-8B8E-1E92ADCCBFD3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="6705" xr2:uid="{35CC5D13-6FA0-4E86-8B8E-1E92ADCCBFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
     <sheet name="Imported Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checklist!$A$1:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checklist!$B$1:$E$40</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="95">
   <si>
     <t>Base Configuration</t>
   </si>
@@ -138,9 +138,6 @@
     <t>XML File Drop</t>
   </si>
   <si>
-    <t>Step</t>
-  </si>
-  <si>
     <t>Creates Data</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Not Done</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Supplier Attribute Synch</t>
   </si>
   <si>
@@ -316,6 +310,15 @@
   </si>
   <si>
     <t>UI</t>
+  </si>
+  <si>
+    <t>Step #</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Not needed if starting with Gold DB</t>
   </si>
 </sst>
 </file>
@@ -744,592 +747,716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1047AD9-F645-470A-B450-40D485C14B1B}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D40" xr:uid="{6990FA27-E4DD-462A-AF27-47FAB6251E50}"/>
+  <autoFilter ref="B1:E40" xr:uid="{6990FA27-E4DD-462A-AF27-47FAB6251E50}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D40" xr:uid="{1129C373-748C-4D11-A1B6-9A8F71DA0D64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E40" xr:uid="{1129C373-748C-4D11-A1B6-9A8F71DA0D64}">
       <formula1>"Not Done,Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1345,112 +1472,112 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="15" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1458,115 +1585,115 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4">
         <v>60</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="10"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -1574,138 +1701,138 @@
         <v>28</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="8">
         <v>1777</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Data Extraction And Loading/Program Files/Documentation/Import Steps Checklist.xlsx
+++ b/Data Extraction And Loading/Program Files/Documentation/Import Steps Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Program Files\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E7F462-EE0D-4764-A584-EC4BF5A917C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1727C50-10A1-4557-B62B-4C41AF24CE93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="6705" xr2:uid="{35CC5D13-6FA0-4E86-8B8E-1E92ADCCBFD3}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checklist!$B$1:$E$40</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="98">
   <si>
     <t>Base Configuration</t>
   </si>
@@ -319,6 +320,15 @@
   </si>
   <si>
     <t>Not needed if starting with Gold DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Fuel Items                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel Tanks                                                       </t>
+  </si>
+  <si>
+    <t>The Fuel Tanks Script will not work without items</t>
   </si>
 </sst>
 </file>
@@ -747,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1047AD9-F645-470A-B450-40D485C14B1B}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,6 +769,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="64.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,7 +1328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1334,7 +1345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1351,7 +1362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1368,7 +1379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1385,7 +1396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1402,7 +1413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1419,7 +1430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1436,7 +1447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1450,13 +1461,50 @@
         <v>35</v>
       </c>
       <c r="E40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:E40" xr:uid="{6990FA27-E4DD-462A-AF27-47FAB6251E50}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E40" xr:uid="{1129C373-748C-4D11-A1B6-9A8F71DA0D64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E42" xr:uid="{1129C373-748C-4D11-A1B6-9A8F71DA0D64}">
       <formula1>"Not Done,Done"</formula1>
     </dataValidation>
   </dataValidations>
